--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>789123.7421776234</v>
+        <v>819743.5544544664</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581892</v>
+        <v>16877859.47655642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843296</v>
+        <v>2305207.638772117</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6285657.909805916</v>
+        <v>6806109.138334351</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>421.3360752539693</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>111.8076036699552</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,13 +721,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>216.6020410093176</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>371.2605412364008</v>
+        <v>304.0940579018715</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -908,13 +910,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>159.0870598415706</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>255.3278812803983</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>219.8096781817308</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1306,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>18.05677735225787</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>106.1854703566679</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.62861572772752</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>168.784337788018</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>396.7969445461137</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1667,10 +1669,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>392.8317871528774</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1777,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>22.28534392847676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>188.4544525887578</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3089,7 +3091,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.77676262085224</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998688</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>333.1321878387046</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>198.9926249238804</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225737</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>41.94061297377442</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.8748482895357</v>
+        <v>2197.844297524402</v>
       </c>
       <c r="C2" t="n">
-        <v>343.8748482895357</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D2" t="n">
-        <v>343.8748482895357</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E2" t="n">
-        <v>343.8748482895357</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F2" t="n">
-        <v>343.8748482895357</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>732.2102786755574</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>732.2102786755574</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>732.2102786755574</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>732.2102786755574</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>2624.297713233603</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.075410550619</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V2" t="n">
-        <v>2002.458460484446</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="W2" t="n">
-        <v>1597.603005895479</v>
+        <v>3043.286331429998</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.46054247479</v>
+        <v>2624.143868009309</v>
       </c>
       <c r="Y2" t="n">
-        <v>770.1744187744434</v>
+        <v>2624.143868009309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>58.04882857612763</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>382.60715354234</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L3" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M3" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N3" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1027.071525829905</v>
+        <v>1898.962011353287</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>1726.400299836512</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>1560.522307038035</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>1390.764303288772</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>1214.057249250528</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>1135.045659441046</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>1409.804114012181</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>1828.013995780142</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>2729.7566661187</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>3149.425915344481</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>3496.932809314823</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>3646.886415136471</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>3401.006968714926</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>3122.573967968031</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>2835.618459838462</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>2563.592055424754</v>
       </c>
       <c r="X4" t="n">
-        <v>1254.491196515797</v>
+        <v>2318.200300758166</v>
       </c>
       <c r="Y4" t="n">
-        <v>1027.071525829905</v>
+        <v>2090.780630072275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.397515878785</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="C5" t="n">
-        <v>1291.397515878785</v>
+        <v>1643.925021918072</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L5" t="n">
-        <v>1344.116250983141</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M5" t="n">
-        <v>1344.116250983141</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N5" t="n">
-        <v>1344.116250983141</v>
+        <v>2042.354151383163</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>2115.395433888441</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.539979299475</v>
+        <v>2897.653179524015</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.397515878785</v>
+        <v>2478.510716103326</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.397515878785</v>
+        <v>2070.224592402979</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>974.6149678201823</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>974.6149678201823</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.479020214562</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142.333694861421</v>
+        <v>2210.811564507809</v>
       </c>
       <c r="C8" t="n">
-        <v>1142.333694861421</v>
+        <v>1772.669091691232</v>
       </c>
       <c r="D8" t="n">
-        <v>1142.333694861421</v>
+        <v>1336.759306865676</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.333694861421</v>
+        <v>902.9845620239714</v>
       </c>
       <c r="F8" t="n">
-        <v>714.4662652706293</v>
+        <v>475.1171324331792</v>
       </c>
       <c r="G8" t="n">
-        <v>313.0684338938931</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="L8" t="n">
-        <v>489.9993811856698</v>
+        <v>306.9256944654255</v>
       </c>
       <c r="M8" t="n">
-        <v>489.9993811856698</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="N8" t="n">
-        <v>666.6506660403358</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>3443.095606217811</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.762281982458</v>
+        <v>3038.240151628845</v>
       </c>
       <c r="X8" t="n">
-        <v>1550.619818561768</v>
+        <v>2619.097688208155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.333694861421</v>
+        <v>2210.811564507809</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K9" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L9" t="n">
-        <v>363.05328532595</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="M9" t="n">
-        <v>1040.518870268755</v>
+        <v>829.4236910780509</v>
       </c>
       <c r="N9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="O9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.4798998523679</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>750.9181883355928</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>585.0401955371156</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>415.2821917878528</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>238.575137749609</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>72.98386277543668</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.524857214007</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>2147.091856467112</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
-        <v>1860.136348337543</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1588.109943923834</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1342.718189257247</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1115.298518571355</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1606.914854098769</v>
+        <v>1443.600568358137</v>
       </c>
       <c r="C11" t="n">
-        <v>1606.914854098769</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.914854098769</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.140109257064</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>835.8047307933927</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>835.8047307933927</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>2690.135074791408</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T11" t="n">
-        <v>2690.135074791408</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U11" t="n">
-        <v>2430.912772108425</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="V11" t="n">
-        <v>2430.912772108425</v>
+        <v>3102.184180553048</v>
       </c>
       <c r="W11" t="n">
-        <v>2026.057317519458</v>
+        <v>2697.328725964081</v>
       </c>
       <c r="X11" t="n">
-        <v>1606.914854098769</v>
+        <v>2278.186262543392</v>
       </c>
       <c r="Y11" t="n">
-        <v>1606.914854098769</v>
+        <v>1869.900138843045</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L12" t="n">
-        <v>1060.072738485145</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="M12" t="n">
-        <v>1060.072738485145</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.072738485145</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.072738485145</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1045.142905119309</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C13" t="n">
-        <v>872.5811936025335</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D13" t="n">
-        <v>706.7032008040562</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E13" t="n">
-        <v>536.9451970547935</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F13" t="n">
-        <v>360.2381430165498</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G13" t="n">
-        <v>194.6468680423774</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X13" t="n">
-        <v>1236.961523838296</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.961523838296</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>884.0099547002803</v>
+        <v>1164.635492108127</v>
       </c>
       <c r="C14" t="n">
-        <v>884.0099547002803</v>
+        <v>1164.635492108127</v>
       </c>
       <c r="D14" t="n">
-        <v>884.0099547002803</v>
+        <v>1164.635492108127</v>
       </c>
       <c r="E14" t="n">
-        <v>884.0099547002803</v>
+        <v>1164.635492108127</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>362.4326662403669</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P14" t="n">
-        <v>2522.396136014086</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.012383954615</v>
+        <v>3185.836054369211</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.395433888441</v>
+        <v>2823.219104303037</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.395433888441</v>
+        <v>2418.363649714071</v>
       </c>
       <c r="X14" t="n">
-        <v>1718.595648885535</v>
+        <v>1999.221186293381</v>
       </c>
       <c r="Y14" t="n">
-        <v>1310.309525185188</v>
+        <v>1590.935062593035</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J15" t="n">
-        <v>379.3030186989643</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K15" t="n">
-        <v>499.7799316366797</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L15" t="n">
-        <v>499.7799316366797</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="M15" t="n">
-        <v>499.7799316366797</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="N15" t="n">
-        <v>499.7799316366797</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="O15" t="n">
-        <v>499.7799316366797</v>
+        <v>916.8191066831936</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.245516579485</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.2407308096831</v>
+        <v>761.378527806567</v>
       </c>
       <c r="C16" t="n">
-        <v>732.679019292908</v>
+        <v>588.816816289792</v>
       </c>
       <c r="D16" t="n">
-        <v>566.8010264944307</v>
+        <v>422.9388234913147</v>
       </c>
       <c r="E16" t="n">
-        <v>397.0430227451681</v>
+        <v>253.1808197420519</v>
       </c>
       <c r="F16" t="n">
-        <v>220.3359687069243</v>
+        <v>76.47376570380814</v>
       </c>
       <c r="G16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2668.544300291755</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.165134592867</v>
+        <v>2509.302931589751</v>
       </c>
       <c r="T16" t="n">
-        <v>2407.285688171322</v>
+        <v>2263.423485168206</v>
       </c>
       <c r="U16" t="n">
-        <v>2128.852687424428</v>
+        <v>1984.990484421312</v>
       </c>
       <c r="V16" t="n">
-        <v>1841.897179294858</v>
+        <v>1698.034976291742</v>
       </c>
       <c r="W16" t="n">
-        <v>1569.87077488115</v>
+        <v>1426.008571878034</v>
       </c>
       <c r="X16" t="n">
-        <v>1324.479020214562</v>
+        <v>1180.616817211446</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.05934952867</v>
+        <v>953.1971465255542</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,10 +5527,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6226,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6303,25 +6305,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>949.5782250957668</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C31" t="n">
-        <v>777.0165135789917</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D31" t="n">
-        <v>611.1385207805145</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>441.3805170312517</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>264.6734629930079</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6663,10 @@
         <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6688,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2412.031452783383</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>3569.079287993934</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993934</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4986.778077699538</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382222</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,28 +7177,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1134.430677610025</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.671098481817</v>
+        <v>2291.478512820576</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2079.569280364165</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1641.426807547588</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1205.517022722033</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>771.7422778803279</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>343.8748482895357</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M41" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N41" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O41" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2079.569280364165</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.05756769164</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528282</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674835</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001789</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.006564617951</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884134</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700347</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>2027.949495860804</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>2352.507820827017</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>3007.21386745274</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>3547.952806084816</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627539</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.49150295814</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958109</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020108</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753302</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771403</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T43" t="n">
-        <v>2635.847811706272</v>
+        <v>2565.745680431779</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1082.186628472167</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C44" t="n">
-        <v>1082.186628472167</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D44" t="n">
-        <v>1082.186628472167</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E44" t="n">
-        <v>1082.186628472167</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>2517.167459510636</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="U44" t="n">
-        <v>2257.945156827654</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="V44" t="n">
-        <v>1895.32820676148</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="W44" t="n">
-        <v>1490.472752172513</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X44" t="n">
-        <v>1490.472752172513</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y44" t="n">
-        <v>1082.186628472167</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>993.9006800350078</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C46" t="n">
-        <v>821.3389685182327</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D46" t="n">
-        <v>655.4609757197554</v>
+        <v>603.5980134879462</v>
       </c>
       <c r="E46" t="n">
-        <v>485.7029719704927</v>
+        <v>433.8400097386835</v>
       </c>
       <c r="F46" t="n">
-        <v>308.995917932249</v>
+        <v>257.1329557004397</v>
       </c>
       <c r="G46" t="n">
-        <v>143.4046429580766</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>91.54168072626732</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W46" t="n">
-        <v>1658.530724106474</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X46" t="n">
-        <v>1413.138969439887</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y46" t="n">
-        <v>1185.719298753995</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>618.0868407147311</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.8815814717786</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>349.2983329370937</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>400.7442731415326</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9173,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9951,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10118,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>127.53932913075</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>695.4268903509969</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>12.42497283444158</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22598,7 +22600,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>106.0589511857366</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.33579611060409</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>60.29014574089911</v>
+        <v>127.4566290754285</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5.132153028921977</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23021,13 +23023,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>30.91097173081755</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23078,7 +23080,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>139.181102383781</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>327.575577731743</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.18673935027384</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>74.15349933190362</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>26.79181074877062</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23546,7 +23548,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>22.11925163360502</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>208.2197249473435</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>54.48338453116386</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>310.4264998424908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473424</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>90.4565674561797</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.8739299318114</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.71657238081404</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>227.365527395797</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>429397.9570272505</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429397.9570272506</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>429397.9570272506</v>
+        <v>519008.1862740369</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429397.9570272505</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429397.9570272506</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658839.4137479668</v>
+        <v>658839.4137479666</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658839.4137479665</v>
+        <v>658839.4137479666</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658839.4137479666</v>
+        <v>658839.4137479668</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429397.9570272505</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429397.9570272506</v>
+        <v>519008.1862740368</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="C2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="D2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="E2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="F2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="G2" t="n">
         <v>276600.23167211</v>
@@ -26350,10 +26352,10 @@
         <v>276600.23167211</v>
       </c>
       <c r="O2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
       <c r="P2" t="n">
-        <v>180273.9361289992</v>
+        <v>217894.9552311347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="C4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="D4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827529</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>11221.82151213932</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133571.5051702327</v>
+        <v>-189731.3454472455</v>
       </c>
       <c r="C6" t="n">
-        <v>95756.0698022802</v>
+        <v>117335.6248394722</v>
       </c>
       <c r="D6" t="n">
-        <v>95756.06980228022</v>
+        <v>117335.6248394722</v>
       </c>
       <c r="E6" t="n">
-        <v>129383.6698022802</v>
+        <v>150963.2248394722</v>
       </c>
       <c r="F6" t="n">
-        <v>129383.6698022802</v>
+        <v>150963.2248394722</v>
       </c>
       <c r="G6" t="n">
-        <v>21843.49969738342</v>
+        <v>85423.7438605529</v>
       </c>
       <c r="H6" t="n">
         <v>184636.7874958248</v>
@@ -26543,25 +26545,25 @@
         <v>184636.7874958248</v>
       </c>
       <c r="J6" t="n">
-        <v>5591.529408172952</v>
+        <v>-55102.74209091789</v>
       </c>
       <c r="K6" t="n">
-        <v>184636.7874958248</v>
+        <v>184636.7874958249</v>
       </c>
       <c r="L6" t="n">
         <v>184636.7874958248</v>
       </c>
       <c r="M6" t="n">
-        <v>184636.7874958248</v>
+        <v>184636.7874958249</v>
       </c>
       <c r="N6" t="n">
         <v>184636.7874958249</v>
       </c>
       <c r="O6" t="n">
-        <v>129383.6698022802</v>
+        <v>150963.2248394722</v>
       </c>
       <c r="P6" t="n">
-        <v>129383.6698022802</v>
+        <v>150963.2248394722</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>618.0868407147311</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
         <v>464.1251183645586</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.8815814717786</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>235.983012910952</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N8" t="n">
-        <v>178.4356412673393</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>763.7587670651191</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>349.2983329370937</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>661.3192390158824</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>400.7442731415326</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>852.0369646460713</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593995</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -36200,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36671,10 +36673,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36838,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1050.67235666819</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>127.53932913075</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>695.4268903509969</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37543,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1042.595795292167</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632068</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>819743.5544544664</v>
+        <v>818122.3959631834</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16877859.47655642</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772117</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>421.3360752539693</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>219.253354634725</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>304.0940579018715</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -913,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>37.09217770016517</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>159.0870598415706</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>106.1854703566679</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>200.7676254170606</v>
       </c>
       <c r="F14" t="n">
-        <v>396.7969445461137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022785</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>75.86622810093029</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>188.4544525887578</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>198.9926249238804</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.05677735225737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2197.844297524402</v>
+        <v>1423.85779479111</v>
       </c>
       <c r="C2" t="n">
-        <v>1772.252302318372</v>
+        <v>985.7153219745337</v>
       </c>
       <c r="D2" t="n">
-        <v>1336.342517492816</v>
+        <v>764.247286989963</v>
       </c>
       <c r="E2" t="n">
-        <v>902.5677726511115</v>
+        <v>764.247286989963</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7003430603193</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358311</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K2" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L2" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M2" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N2" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O2" t="n">
-        <v>2121.162858634107</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P2" t="n">
-        <v>2949.472733467504</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="Q2" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R2" t="n">
         <v>3665.125584179155</v>
@@ -4360,22 +4360,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3665.125584179155</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="U2" t="n">
-        <v>3405.903281496172</v>
+        <v>3445.058357052194</v>
       </c>
       <c r="V2" t="n">
-        <v>3043.286331429998</v>
+        <v>3082.44140698602</v>
       </c>
       <c r="W2" t="n">
-        <v>3043.286331429998</v>
+        <v>2677.585952397054</v>
       </c>
       <c r="X2" t="n">
-        <v>2624.143868009309</v>
+        <v>2258.443488976365</v>
       </c>
       <c r="Y2" t="n">
-        <v>2624.143868009309</v>
+        <v>1850.157365276018</v>
       </c>
     </row>
     <row r="3">
@@ -4515,10 +4515,10 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S4" t="n">
-        <v>3646.886415136471</v>
+        <v>3505.884215477152</v>
       </c>
       <c r="T4" t="n">
-        <v>3401.006968714926</v>
+        <v>3260.004769055607</v>
       </c>
       <c r="U4" t="n">
         <v>3122.573967968031</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.925021918072</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C5" t="n">
-        <v>1643.925021918072</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.759306865676</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E5" t="n">
-        <v>902.9845620239714</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>475.1171324331792</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>73.7193010564431</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
         <v>73.7193010564431</v>
@@ -4567,52 +4567,52 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358311</v>
+        <v>188.2282532188996</v>
       </c>
       <c r="K5" t="n">
-        <v>907.652803641761</v>
+        <v>1022.578545177078</v>
       </c>
       <c r="L5" t="n">
-        <v>1814.771385726102</v>
+        <v>1929.697127261418</v>
       </c>
       <c r="M5" t="n">
-        <v>1814.771385726102</v>
+        <v>1929.697127261418</v>
       </c>
       <c r="N5" t="n">
-        <v>2042.354151383163</v>
+        <v>1929.697127261418</v>
       </c>
       <c r="O5" t="n">
-        <v>2949.472733467504</v>
+        <v>2836.815709345759</v>
       </c>
       <c r="P5" t="n">
-        <v>2949.472733467504</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q5" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R5" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T5" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="U5" t="n">
-        <v>3665.125584179155</v>
+        <v>3361.406483236031</v>
       </c>
       <c r="V5" t="n">
-        <v>3302.508634112982</v>
+        <v>3323.939637074248</v>
       </c>
       <c r="W5" t="n">
-        <v>2897.653179524015</v>
+        <v>2919.084182485281</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.510716103326</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.224592402979</v>
+        <v>2499.941719064592</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L6" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M6" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O6" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P6" t="n">
         <v>1078.630556435977</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>974.6149678201823</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C7" t="n">
-        <v>974.6149678201823</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D7" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E7" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G7" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
         <v>73.30251168358311</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2530.720752884379</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T7" t="n">
-        <v>2284.841306462834</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U7" t="n">
-        <v>2006.40830571594</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V7" t="n">
-        <v>1719.45279758637</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W7" t="n">
-        <v>1447.426393172662</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X7" t="n">
-        <v>1202.034638506074</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.6149678201823</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>306.9256944654255</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>306.9256944654255</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>306.9256944654255</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M8" t="n">
-        <v>1214.044276549766</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N8" t="n">
-        <v>2121.162858634107</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O8" t="n">
-        <v>2121.162858634107</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P8" t="n">
-        <v>2949.472733467504</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="Q8" t="n">
-        <v>3495.971519426098</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R8" t="n">
         <v>3665.125584179155</v>
@@ -4880,31 +4880,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L9" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M9" t="n">
-        <v>829.4236910780509</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P9" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
         <v>1736.542273162392</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
         <v>73.30251168358311</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1443.600568358137</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C11" t="n">
-        <v>1336.342517492816</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D11" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E11" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F11" t="n">
-        <v>474.7003430603193</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358311</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
         <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N11" t="n">
-        <v>1383.198341302823</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O11" t="n">
-        <v>2290.316923387164</v>
+        <v>2721.889967810443</v>
       </c>
       <c r="P11" t="n">
-        <v>3118.62679822056</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="Q11" t="n">
-        <v>3665.125584179155</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="R11" t="n">
         <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3581.473710362992</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3361.406483236031</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.184180553048</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>3102.184180553048</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.328725964081</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X11" t="n">
-        <v>2278.186262543392</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.900138843045</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>73.30251168358311</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
         <v>1736.542273162392</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
         <v>73.30251168358311</v>
@@ -5226,25 +5226,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.635492108127</v>
+        <v>1979.415611522598</v>
       </c>
       <c r="C14" t="n">
-        <v>1164.635492108127</v>
+        <v>1541.273138706021</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.635492108127</v>
+        <v>1105.363353880466</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.635492108127</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F14" t="n">
-        <v>763.830497617103</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G14" t="n">
-        <v>362.4326662403669</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H14" t="n">
         <v>73.30251168358311</v>
@@ -5290,13 +5290,13 @@
         <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>2721.889967810443</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
         <v>2721.889967810443</v>
       </c>
       <c r="P14" t="n">
-        <v>3118.62679822056</v>
+        <v>3550.199842643839</v>
       </c>
       <c r="Q14" t="n">
         <v>3665.125584179155</v>
@@ -5305,25 +5305,25 @@
         <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179155</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="T14" t="n">
-        <v>3445.058357052194</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="U14" t="n">
-        <v>3185.836054369211</v>
+        <v>3581.473710362992</v>
       </c>
       <c r="V14" t="n">
-        <v>2823.219104303037</v>
+        <v>3218.856760296819</v>
       </c>
       <c r="W14" t="n">
-        <v>2418.363649714071</v>
+        <v>2814.001305707852</v>
       </c>
       <c r="X14" t="n">
-        <v>1999.221186293381</v>
+        <v>2814.001305707852</v>
       </c>
       <c r="Y14" t="n">
-        <v>1590.935062593035</v>
+        <v>2405.715182007506</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>73.30251168358311</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>73.30251168358311</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>916.8191066831936</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>916.8191066831936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
         <v>1736.542273162392</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.378527806567</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>588.816816289792</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>422.9388234913147</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>253.1808197420519</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>76.47376570380814</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
         <v>73.30251168358311</v>
@@ -5460,28 +5460,28 @@
         <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2668.544300291755</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2509.302931589751</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2263.423485168206</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.990484421312</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>1698.034976291742</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.008571878034</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1180.616817211446</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>953.1971465255542</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,25 +5758,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,7 +5834,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6071,10 +6071,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
         <v>1463.16863798718</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.611946844417</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1423.850236249296</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2499.553657656408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1134.430677610025</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2291.478512820576</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7417,22 +7417,22 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="N41" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="O41" t="n">
-        <v>2290.316923387164</v>
+        <v>2667.661644592702</v>
       </c>
       <c r="P41" t="n">
-        <v>3118.62679822056</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="Q41" t="n">
-        <v>3665.125584179155</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R41" t="n">
         <v>3665.125584179155</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2508.05756769164</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>2401.601106528282</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>2306.510817674835</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>2212.390403001789</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>2129.006564617951</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>2043.621474884134</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>2001.885822700347</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>2027.949495860804</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.507820827017</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P42" t="n">
-        <v>3007.21386745274</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>3547.952806084816</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>3665.125584179155</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>3601.670146627539</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>3471.49150295814</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>3295.154955958109</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>3096.037438020108</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>2910.714683753302</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>2755.847247992182</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>2629.361468771403</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1063.70072307014</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>891.1390115533646</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>725.2610187548873</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
         <v>73.30251168358311</v>
@@ -7596,25 +7596,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2565.745680431779</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>2287.312679684884</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>2000.357171555315</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1728.330767141606</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1482.939012475019</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>1255.519341789127</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2210.394775134949</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.252302318372</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>474.7003430603193</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
         <v>73.30251168358311</v>
@@ -7654,22 +7654,22 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="M44" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="N44" t="n">
-        <v>1383.198341302823</v>
+        <v>1760.543062508361</v>
       </c>
       <c r="O44" t="n">
-        <v>2290.316923387164</v>
+        <v>2667.661644592702</v>
       </c>
       <c r="P44" t="n">
-        <v>3118.62679822056</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="Q44" t="n">
-        <v>3665.125584179155</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R44" t="n">
         <v>3665.125584179155</v>
@@ -7678,22 +7678,22 @@
         <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3464.122932740892</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.122932740892</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>3464.122932740892</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>3464.122932740892</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>3044.980469320203</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2636.694345619856</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>942.0377178031986</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>769.4760062864235</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>603.5980134879462</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>433.8400097386835</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>257.1329557004397</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>91.54168072626732</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
         <v>73.30251168358311</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2165.649674417943</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>1878.694166288373</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1606.667761874665</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.276007208078</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.856336522186</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>786.1165328681095</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.0866076114308</v>
       </c>
       <c r="K5" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>916.2813960447889</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.8815814717786</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>235.983012910952</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>916.2813960447888</v>
-      </c>
-      <c r="N8" t="n">
-        <v>916.2813960447888</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>916.2813960447888</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>916.2813960447888</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>400.7442731415326</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,22 +9245,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9719,13 +9719,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>40.69782849307467</v>
+        <v>421.854112539073</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>40.69782849307467</v>
+        <v>421.854112539073</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.42497283444158</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2973323425749</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22755,13 +22755,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>127.4566290754285</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.8986028653466</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.132153028921977</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>327.575577731743</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>228.6693719762271</v>
       </c>
       <c r="F14" t="n">
-        <v>26.79181074877062</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.2197249473435</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.48338453116386</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25918,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>18.8739299318114</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -25927,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71657238081404</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>519008.1862740368</v>
+        <v>519008.1862740369</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>519008.1862740368</v>
+        <v>519008.1862740369</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519008.1862740368</v>
+        <v>519008.1862740369</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658839.4137479668</v>
+        <v>658839.4137479666</v>
       </c>
     </row>
     <row r="13">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11221.82151213932</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="C4" t="n">
-        <v>11221.82151213932</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="D4" t="n">
         <v>11221.82151213933</v>
       </c>
       <c r="E4" t="n">
-        <v>11221.82151213932</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="F4" t="n">
-        <v>11221.82151213932</v>
+        <v>11221.82151213933</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189731.3454472455</v>
+        <v>-190034.1187220614</v>
       </c>
       <c r="C6" t="n">
-        <v>117335.6248394722</v>
+        <v>117032.8515646564</v>
       </c>
       <c r="D6" t="n">
-        <v>117335.6248394722</v>
+        <v>117032.8515646564</v>
       </c>
       <c r="E6" t="n">
-        <v>150963.2248394722</v>
+        <v>150660.4515646564</v>
       </c>
       <c r="F6" t="n">
-        <v>150963.2248394722</v>
+        <v>150660.4515646564</v>
       </c>
       <c r="G6" t="n">
-        <v>85423.7438605529</v>
+        <v>85400.51952117027</v>
       </c>
       <c r="H6" t="n">
-        <v>184636.7874958248</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="I6" t="n">
-        <v>184636.7874958248</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="J6" t="n">
-        <v>-55102.74209091789</v>
+        <v>-55125.96643030048</v>
       </c>
       <c r="K6" t="n">
-        <v>184636.7874958249</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="L6" t="n">
-        <v>184636.7874958248</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="M6" t="n">
-        <v>184636.7874958249</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="N6" t="n">
-        <v>184636.7874958249</v>
+        <v>184613.5631564422</v>
       </c>
       <c r="O6" t="n">
-        <v>150963.2248394722</v>
+        <v>150660.4515646563</v>
       </c>
       <c r="P6" t="n">
-        <v>150963.2248394722</v>
+        <v>150660.4515646563</v>
       </c>
     </row>
   </sheetData>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>786.1165328681095</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P2" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.0866076114308</v>
       </c>
       <c r="K5" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>916.2813960447889</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>229.8815814717786</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158823</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>235.983012910952</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>916.2813960447888</v>
       </c>
-      <c r="N8" t="n">
-        <v>916.2813960447888</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>763.7587670651191</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157527</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35658,16 +35658,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>916.2813960447888</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>400.7442731415326</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157527</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>852.0369646460713</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35965,22 +35965,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36907,23 +36907,23 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>40.69782849307467</v>
+        <v>421.854112539073</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157527</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632068</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>40.69782849307467</v>
+        <v>421.854112539073</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157527</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
